--- a/Code/Results/Cases/Case_1_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>0.974841599748369</v>
+        <v>1.012014019070573</v>
       </c>
       <c r="D2">
-        <v>1.040056914031695</v>
+        <v>1.047310552161974</v>
       </c>
       <c r="E2">
-        <v>0.9848171414166138</v>
+        <v>1.014121338360366</v>
       </c>
       <c r="F2">
-        <v>1.026513985532554</v>
+        <v>1.047650023309213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05685121568481</v>
+        <v>1.03816588614912</v>
       </c>
       <c r="J2">
-        <v>0.9978017459883392</v>
+        <v>1.017259174851471</v>
       </c>
       <c r="K2">
-        <v>1.050985034915644</v>
+        <v>1.050073546448045</v>
       </c>
       <c r="L2">
-        <v>0.9964921300372631</v>
+        <v>1.016980440022441</v>
       </c>
       <c r="M2">
-        <v>1.037615894666698</v>
+        <v>1.050412068711576</v>
       </c>
       <c r="N2">
-        <v>1.00342682049168</v>
+        <v>1.009901413314541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9794682926142048</v>
+        <v>1.012962844597421</v>
       </c>
       <c r="D3">
-        <v>1.044333892813997</v>
+        <v>1.048062212629455</v>
       </c>
       <c r="E3">
-        <v>0.9884808334883838</v>
+        <v>1.014924594023024</v>
       </c>
       <c r="F3">
-        <v>1.031810790064321</v>
+        <v>1.04863699319098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058538448330805</v>
+        <v>1.038347439040479</v>
       </c>
       <c r="J3">
-        <v>1.000534763955401</v>
+        <v>1.017841514589394</v>
       </c>
       <c r="K3">
-        <v>1.054429278169618</v>
+        <v>1.050637181457562</v>
       </c>
       <c r="L3">
-        <v>0.999263257320797</v>
+        <v>1.017588577923297</v>
       </c>
       <c r="M3">
-        <v>1.042052203101747</v>
+        <v>1.051210471632037</v>
       </c>
       <c r="N3">
-        <v>1.004334398608925</v>
+        <v>1.010093994106258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9823927958461893</v>
+        <v>1.013576493200082</v>
       </c>
       <c r="D4">
-        <v>1.047008953084224</v>
+        <v>1.048544424930195</v>
       </c>
       <c r="E4">
-        <v>0.9908030949134232</v>
+        <v>1.015444510948086</v>
       </c>
       <c r="F4">
-        <v>1.035128831188463</v>
+        <v>1.049271216130445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059575200229904</v>
+        <v>1.038461240550373</v>
       </c>
       <c r="J4">
-        <v>1.002257877167263</v>
+        <v>1.018217460067269</v>
       </c>
       <c r="K4">
-        <v>1.056571288817965</v>
+        <v>1.050997074577084</v>
       </c>
       <c r="L4">
-        <v>1.001013800646335</v>
+        <v>1.017981594509036</v>
       </c>
       <c r="M4">
-        <v>1.044820992070336</v>
+        <v>1.051722076158153</v>
       </c>
       <c r="N4">
-        <v>1.004906509011508</v>
+        <v>1.010218292242407</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9836063171036673</v>
+        <v>1.013834397612502</v>
       </c>
       <c r="D5">
-        <v>1.048112113223131</v>
+        <v>1.048746148980426</v>
       </c>
       <c r="E5">
-        <v>0.9917682201239517</v>
+        <v>1.015663120583458</v>
       </c>
       <c r="F5">
-        <v>1.036498446689266</v>
+        <v>1.049536785914536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059998209248586</v>
+        <v>1.038508201746191</v>
       </c>
       <c r="J5">
-        <v>1.002971796204989</v>
+        <v>1.018375299233632</v>
       </c>
       <c r="K5">
-        <v>1.057451645956901</v>
+        <v>1.051147218976202</v>
       </c>
       <c r="L5">
-        <v>1.001739898375916</v>
+        <v>1.018146700804539</v>
       </c>
       <c r="M5">
-        <v>1.04596138202152</v>
+        <v>1.051935952449633</v>
       </c>
       <c r="N5">
-        <v>1.005143519426515</v>
+        <v>1.010270471642466</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9838091559694251</v>
+        <v>1.013877696576633</v>
       </c>
       <c r="D6">
-        <v>1.04829610094555</v>
+        <v>1.048779960765535</v>
       </c>
       <c r="E6">
-        <v>0.9919296269250593</v>
+        <v>1.015699828218004</v>
       </c>
       <c r="F6">
-        <v>1.036726952888516</v>
+        <v>1.049581314198552</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060068490318211</v>
+        <v>1.038516035045194</v>
       </c>
       <c r="J6">
-        <v>1.00309106239605</v>
+        <v>1.018401788888003</v>
       </c>
       <c r="K6">
-        <v>1.057598297148506</v>
+        <v>1.051172361121985</v>
       </c>
       <c r="L6">
-        <v>1.001861246921045</v>
+        <v>1.018174415943626</v>
       </c>
       <c r="M6">
-        <v>1.046151495229619</v>
+        <v>1.051971792672432</v>
       </c>
       <c r="N6">
-        <v>1.00518311242694</v>
+        <v>1.010279228356609</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9824090727840967</v>
+        <v>1.013579939620762</v>
       </c>
       <c r="D7">
-        <v>1.047023776906841</v>
+        <v>1.048547124300581</v>
       </c>
       <c r="E7">
-        <v>0.9908160342361356</v>
+        <v>1.015447431878382</v>
       </c>
       <c r="F7">
-        <v>1.035147230294635</v>
+        <v>1.04927476884419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05958090254089</v>
+        <v>1.03846187151128</v>
       </c>
       <c r="J7">
-        <v>1.002267457279387</v>
+        <v>1.01821956994141</v>
       </c>
       <c r="K7">
-        <v>1.056583130583468</v>
+        <v>1.050999085353324</v>
       </c>
       <c r="L7">
-        <v>1.001023540968675</v>
+        <v>1.017983801131617</v>
       </c>
       <c r="M7">
-        <v>1.04483632181345</v>
+        <v>1.051724938709987</v>
       </c>
       <c r="N7">
-        <v>1.00490968957048</v>
+        <v>1.010218989763242</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9764199573953546</v>
+        <v>1.012334741982418</v>
       </c>
       <c r="D8">
-        <v>1.041521910299919</v>
+        <v>1.047565440275052</v>
       </c>
       <c r="E8">
-        <v>0.9860655914836982</v>
+        <v>1.014392769328016</v>
       </c>
       <c r="F8">
-        <v>1.028327261100483</v>
+        <v>1.047984487399638</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057433015924188</v>
+        <v>1.038228003180461</v>
       </c>
       <c r="J8">
-        <v>0.9987350018090442</v>
+        <v>1.017456158465643</v>
       </c>
       <c r="K8">
-        <v>1.052167347864168</v>
+        <v>1.0502650258809</v>
       </c>
       <c r="L8">
-        <v>0.9974376811016803</v>
+        <v>1.017186063952677</v>
       </c>
       <c r="M8">
-        <v>1.039136720239273</v>
+        <v>1.050682930350899</v>
       </c>
       <c r="N8">
-        <v>1.003736754867339</v>
+        <v>1.009966561875403</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9653046674236575</v>
+        <v>1.010138226728848</v>
       </c>
       <c r="D9">
-        <v>1.031085195047173</v>
+        <v>1.045803770739517</v>
       </c>
       <c r="E9">
-        <v>0.9773032752474482</v>
+        <v>1.012535561363039</v>
       </c>
       <c r="F9">
-        <v>1.015428791174058</v>
+        <v>1.04567709467411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053210960621578</v>
+        <v>1.037787792154339</v>
       </c>
       <c r="J9">
-        <v>0.992145040239333</v>
+        <v>1.016104315807701</v>
       </c>
       <c r="K9">
-        <v>1.043693294287023</v>
+        <v>1.048934695558413</v>
       </c>
       <c r="L9">
-        <v>0.9907756471803782</v>
+        <v>1.015776632370311</v>
       </c>
       <c r="M9">
-        <v>1.02827641015637</v>
+        <v>1.048808424343099</v>
       </c>
       <c r="N9">
-        <v>1.001547890870286</v>
+        <v>1.009519352860898</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9574696834050092</v>
+        <v>1.00867234336161</v>
       </c>
       <c r="D10">
-        <v>1.023576933747924</v>
+        <v>1.044608003329458</v>
       </c>
       <c r="E10">
-        <v>0.9711671224586634</v>
+        <v>1.011298309754793</v>
       </c>
       <c r="F10">
-        <v>1.006171210404327</v>
+        <v>1.044116183192049</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050077763142782</v>
+        <v>1.037475474573586</v>
       </c>
       <c r="J10">
-        <v>0.9874785935318777</v>
+        <v>1.015198674223371</v>
       </c>
       <c r="K10">
-        <v>1.037533159445816</v>
+        <v>1.048023125838685</v>
       </c>
       <c r="L10">
-        <v>0.9860772366281053</v>
+        <v>1.014834550077651</v>
       </c>
       <c r="M10">
-        <v>1.020429928580899</v>
+        <v>1.04753303204222</v>
       </c>
       <c r="N10">
-        <v>0.99999759684538</v>
+        <v>1.00921961278282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.95396460523598</v>
+        <v>1.008037236735509</v>
       </c>
       <c r="D11">
-        <v>1.020182214334098</v>
+        <v>1.044085177179233</v>
       </c>
       <c r="E11">
-        <v>0.968432449980957</v>
+        <v>1.01076278632216</v>
       </c>
       <c r="F11">
-        <v>1.001989673925762</v>
+        <v>1.043434923770157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048639321643409</v>
+        <v>1.037335777472135</v>
       </c>
       <c r="J11">
-        <v>0.9853863463590001</v>
+        <v>1.014805480542724</v>
       </c>
       <c r="K11">
-        <v>1.034733302609794</v>
+        <v>1.047622564169062</v>
       </c>
       <c r="L11">
-        <v>0.9839752914675343</v>
+        <v>1.014426041098698</v>
       </c>
       <c r="M11">
-        <v>1.016874165203951</v>
+        <v>1.046974681905786</v>
       </c>
       <c r="N11">
-        <v>0.9993024635867628</v>
+        <v>1.009089444489583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9526446666875814</v>
+        <v>1.007801274373927</v>
       </c>
       <c r="D12">
-        <v>1.018898459074378</v>
+        <v>1.0438902180045</v>
       </c>
       <c r="E12">
-        <v>0.967404272312424</v>
+        <v>1.010563902013483</v>
       </c>
       <c r="F12">
-        <v>1.000408898823917</v>
+        <v>1.043181066195385</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048092150706808</v>
+        <v>1.037283218020801</v>
       </c>
       <c r="J12">
-        <v>0.9845977854573624</v>
+        <v>1.014659274268896</v>
       </c>
       <c r="K12">
-        <v>1.033672334996028</v>
+        <v>1.047472900127002</v>
       </c>
       <c r="L12">
-        <v>0.9831837823425694</v>
+        <v>1.014274215811134</v>
       </c>
       <c r="M12">
-        <v>1.01552826916834</v>
+        <v>1.046766370202106</v>
       </c>
       <c r="N12">
-        <v>0.9990404666581238</v>
+        <v>1.009041037402754</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9529286310503827</v>
+        <v>1.007851891612148</v>
       </c>
       <c r="D13">
-        <v>1.01917488198303</v>
+        <v>1.0439320717141</v>
       </c>
       <c r="E13">
-        <v>0.9676253933524684</v>
+        <v>1.01060656187162</v>
       </c>
       <c r="F13">
-        <v>1.000749254966353</v>
+        <v>1.043235556049759</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048210113174277</v>
+        <v>1.037294522499703</v>
       </c>
       <c r="J13">
-        <v>0.9847674615995993</v>
+        <v>1.014690643093692</v>
       </c>
       <c r="K13">
-        <v>1.033900883709656</v>
+        <v>1.047505043275621</v>
       </c>
       <c r="L13">
-        <v>0.9833540607456489</v>
+        <v>1.014306786774663</v>
       </c>
       <c r="M13">
-        <v>1.015818128782088</v>
+        <v>1.046811095197928</v>
       </c>
       <c r="N13">
-        <v>0.9990968411437703</v>
+        <v>1.009051423454917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9538558725159055</v>
+        <v>1.008017733144903</v>
       </c>
       <c r="D14">
-        <v>1.020076571482543</v>
+        <v>1.044069077258422</v>
       </c>
       <c r="E14">
-        <v>0.9683477178532235</v>
+        <v>1.010746345807382</v>
       </c>
       <c r="F14">
-        <v>1.001859578599705</v>
+        <v>1.043413956297196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048594358462547</v>
+        <v>1.037331446550702</v>
       </c>
       <c r="J14">
-        <v>0.985321400292947</v>
+        <v>1.014793398279905</v>
       </c>
       <c r="K14">
-        <v>1.034646037167996</v>
+        <v>1.047610210791949</v>
       </c>
       <c r="L14">
-        <v>0.9839100881627746</v>
+        <v>1.014413492942607</v>
       </c>
       <c r="M14">
-        <v>1.016763433939089</v>
+        <v>1.0469574814717</v>
       </c>
       <c r="N14">
-        <v>0.9992808855107587</v>
+        <v>1.009085444302395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.954424757414391</v>
+        <v>1.008119906234854</v>
       </c>
       <c r="D15">
-        <v>1.020629071396828</v>
+        <v>1.044153390434237</v>
       </c>
       <c r="E15">
-        <v>0.9687911000512275</v>
+        <v>1.01083247568826</v>
       </c>
       <c r="F15">
-        <v>1.002539982914223</v>
+        <v>1.04352376757331</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048829380757276</v>
+        <v>1.037354107947532</v>
       </c>
       <c r="J15">
-        <v>0.9856611684423534</v>
+        <v>1.014856688395843</v>
       </c>
       <c r="K15">
-        <v>1.035102337452164</v>
+        <v>1.047674891697329</v>
       </c>
       <c r="L15">
-        <v>0.9842512309163765</v>
+        <v>1.014479226636865</v>
       </c>
       <c r="M15">
-        <v>1.017342495125067</v>
+        <v>1.04704755356908</v>
       </c>
       <c r="N15">
-        <v>0.9993937720210637</v>
+        <v>1.009106398148306</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9576998425591344</v>
+        <v>1.008714485515535</v>
       </c>
       <c r="D16">
-        <v>1.023799102193847</v>
+        <v>1.044642595213887</v>
       </c>
       <c r="E16">
-        <v>0.9713469163106568</v>
+        <v>1.011333855263576</v>
       </c>
       <c r="F16">
-        <v>1.006444949719485</v>
+        <v>1.044161282902347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050171456515756</v>
+        <v>1.037484651860698</v>
       </c>
       <c r="J16">
-        <v>0.9876158859754633</v>
+        <v>1.015224747208895</v>
       </c>
       <c r="K16">
-        <v>1.037716096280968</v>
+        <v>1.048049586691059</v>
       </c>
       <c r="L16">
-        <v>0.9862152625999038</v>
+        <v>1.014861649268089</v>
       </c>
       <c r="M16">
-        <v>1.020662466785051</v>
+        <v>1.047569959483895</v>
       </c>
       <c r="N16">
-        <v>1.000043210561881</v>
+        <v>1.009228243653149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9597233576935376</v>
+        <v>1.009087350504147</v>
       </c>
       <c r="D17">
-        <v>1.025748300585329</v>
+        <v>1.044948108612615</v>
       </c>
       <c r="E17">
-        <v>0.9729288206483734</v>
+        <v>1.011648415394646</v>
       </c>
       <c r="F17">
-        <v>1.008847058747709</v>
+        <v>1.044559740548453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050991021287932</v>
+        <v>1.037565344551753</v>
       </c>
       <c r="J17">
-        <v>0.9888224105180565</v>
+        <v>1.015455341288029</v>
       </c>
       <c r="K17">
-        <v>1.039319443885387</v>
+        <v>1.048283058353627</v>
       </c>
       <c r="L17">
-        <v>0.9874287600458873</v>
+        <v>1.015101377619986</v>
       </c>
       <c r="M17">
-        <v>1.022701724999048</v>
+        <v>1.047896018925785</v>
       </c>
       <c r="N17">
-        <v>1.000444058817211</v>
+        <v>1.009304572784559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.960892866352514</v>
+        <v>1.009304800696941</v>
       </c>
       <c r="D18">
-        <v>1.026871469571673</v>
+        <v>1.045125822030959</v>
       </c>
       <c r="E18">
-        <v>0.9738440762655006</v>
+        <v>1.011831913666372</v>
       </c>
       <c r="F18">
-        <v>1.010231596487123</v>
+        <v>1.044791635606175</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051461214836519</v>
+        <v>1.037611980726121</v>
       </c>
       <c r="J18">
-        <v>0.9895192895233736</v>
+        <v>1.015589742074005</v>
       </c>
       <c r="K18">
-        <v>1.040241944911921</v>
+        <v>1.048418674333875</v>
       </c>
       <c r="L18">
-        <v>0.9881301036093419</v>
+        <v>1.015241151013171</v>
       </c>
       <c r="M18">
-        <v>1.023876025844948</v>
+        <v>1.048085615605919</v>
       </c>
       <c r="N18">
-        <v>1.000675581254898</v>
+        <v>1.009349057712628</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9612898430107523</v>
+        <v>1.009378939545727</v>
       </c>
       <c r="D19">
-        <v>1.027252141869466</v>
+        <v>1.045186335026657</v>
       </c>
       <c r="E19">
-        <v>0.9741549135352007</v>
+        <v>1.011894485319527</v>
       </c>
       <c r="F19">
-        <v>1.010700922882593</v>
+        <v>1.044870617872996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051620225049452</v>
+        <v>1.037627809416729</v>
       </c>
       <c r="J19">
-        <v>0.989755761227795</v>
+        <v>1.015635552153558</v>
       </c>
       <c r="K19">
-        <v>1.040554369965579</v>
+        <v>1.048464820176341</v>
       </c>
       <c r="L19">
-        <v>0.9883681641090252</v>
+        <v>1.015288800598901</v>
       </c>
       <c r="M19">
-        <v>1.024273899292342</v>
+        <v>1.04815016337881</v>
       </c>
       <c r="N19">
-        <v>1.000754142858163</v>
+        <v>1.009364219717598</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.95950737565212</v>
+        <v>1.009047349306285</v>
       </c>
       <c r="D20">
-        <v>1.025540602409157</v>
+        <v>1.044915380323142</v>
       </c>
       <c r="E20">
-        <v>0.9727598721554573</v>
+        <v>1.011614663926481</v>
       </c>
       <c r="F20">
-        <v>1.008591060250672</v>
+        <v>1.044517043449035</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050903905234211</v>
+        <v>1.037556731514577</v>
       </c>
       <c r="J20">
-        <v>0.9886936765411822</v>
+        <v>1.015430611153156</v>
       </c>
       <c r="K20">
-        <v>1.039148741379648</v>
+        <v>1.048258067394657</v>
       </c>
       <c r="L20">
-        <v>0.9872992366214896</v>
+        <v>1.015075662835726</v>
       </c>
       <c r="M20">
-        <v>1.022484509804439</v>
+        <v>1.047861096677988</v>
       </c>
       <c r="N20">
-        <v>1.00040128946562</v>
+        <v>1.009296387171971</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9535833291064751</v>
+        <v>1.007968898478562</v>
       </c>
       <c r="D21">
-        <v>1.019811686416441</v>
+        <v>1.044028753468045</v>
       </c>
       <c r="E21">
-        <v>0.9681353597143976</v>
+        <v>1.010705182007716</v>
       </c>
       <c r="F21">
-        <v>1.001533390404788</v>
+        <v>1.043361444162602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048481568076209</v>
+        <v>1.03732059182153</v>
       </c>
       <c r="J21">
-        <v>0.9851585994998898</v>
+        <v>1.014763143759892</v>
       </c>
       <c r="K21">
-        <v>1.034427196219006</v>
+        <v>1.047579265800814</v>
       </c>
       <c r="L21">
-        <v>0.9837466539662109</v>
+        <v>1.014382073030183</v>
       </c>
       <c r="M21">
-        <v>1.016485770352242</v>
+        <v>1.046914399635389</v>
       </c>
       <c r="N21">
-        <v>0.9992267955384472</v>
+        <v>1.009075427577348</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9497539078899034</v>
+        <v>1.007290512622459</v>
       </c>
       <c r="D22">
-        <v>1.016077047474894</v>
+        <v>1.043466909099633</v>
       </c>
       <c r="E22">
-        <v>0.9651556035254062</v>
+        <v>1.010133545515785</v>
       </c>
       <c r="F22">
-        <v>0.9969355653465748</v>
+        <v>1.042630201001971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046883754792487</v>
+        <v>1.037168246818763</v>
       </c>
       <c r="J22">
-        <v>0.9828695966771875</v>
+        <v>1.014342574431033</v>
       </c>
       <c r="K22">
-        <v>1.031336604050356</v>
+        <v>1.047147399013056</v>
       </c>
       <c r="L22">
-        <v>0.9814504470362047</v>
+        <v>1.013945483220793</v>
       </c>
       <c r="M22">
-        <v>1.012567974706589</v>
+        <v>1.046313876325283</v>
       </c>
       <c r="N22">
-        <v>0.9984662781746334</v>
+        <v>1.00893617301605</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9517942768814641</v>
+        <v>1.007650168229927</v>
       </c>
       <c r="D23">
-        <v>1.018069865731104</v>
+        <v>1.043765169090006</v>
       </c>
       <c r="E23">
-        <v>0.9667423267397387</v>
+        <v>1.01043656252152</v>
       </c>
       <c r="F23">
-        <v>0.9993887316216085</v>
+        <v>1.043018289742023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047738086914652</v>
+        <v>1.037249374883186</v>
       </c>
       <c r="J23">
-        <v>0.9840895605596135</v>
+        <v>1.014565611968525</v>
       </c>
       <c r="K23">
-        <v>1.032986932275917</v>
+        <v>1.047376820837833</v>
       </c>
       <c r="L23">
-        <v>0.9826738580298633</v>
+        <v>1.014176975218021</v>
       </c>
       <c r="M23">
-        <v>1.014659215074866</v>
+        <v>1.046632727127242</v>
       </c>
       <c r="N23">
-        <v>0.9988716098906931</v>
+        <v>1.009010025589895</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9596050018522827</v>
+        <v>1.009065424235686</v>
       </c>
       <c r="D24">
-        <v>1.025634494723018</v>
+        <v>1.044930170333811</v>
       </c>
       <c r="E24">
-        <v>0.9728362356531175</v>
+        <v>1.011629914698195</v>
       </c>
       <c r="F24">
-        <v>1.008706786046893</v>
+        <v>1.044536338031884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050943293427883</v>
+        <v>1.037560624705306</v>
       </c>
       <c r="J24">
-        <v>0.9887518670557882</v>
+        <v>1.015441785948053</v>
       </c>
       <c r="K24">
-        <v>1.039225913675472</v>
+        <v>1.048269361475779</v>
       </c>
       <c r="L24">
-        <v>0.9873577826278397</v>
+        <v>1.015087282413089</v>
       </c>
       <c r="M24">
-        <v>1.022582706761375</v>
+        <v>1.047876878355596</v>
       </c>
       <c r="N24">
-        <v>1.000420622142197</v>
+        <v>1.009300086010887</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9682494236076749</v>
+        <v>1.010706351208077</v>
       </c>
       <c r="D25">
-        <v>1.033876283315683</v>
+        <v>1.046262967234636</v>
       </c>
       <c r="E25">
-        <v>0.979618016711379</v>
+        <v>1.013015541463022</v>
       </c>
       <c r="F25">
-        <v>1.018874210432532</v>
+        <v>1.046277605769122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054356663884934</v>
+        <v>1.037904922164714</v>
       </c>
       <c r="J25">
-        <v>0.9938946919895869</v>
+        <v>1.016454579721014</v>
       </c>
       <c r="K25">
-        <v>1.045970527492715</v>
+        <v>1.049282973404613</v>
       </c>
       <c r="L25">
-        <v>0.9925411977744691</v>
+        <v>1.016141440665199</v>
       </c>
       <c r="M25">
-        <v>1.031186427350051</v>
+        <v>1.049297566934042</v>
       </c>
       <c r="N25">
-        <v>1.002129106811447</v>
+        <v>1.009635250092434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012014019070573</v>
+        <v>0.9748415997483683</v>
       </c>
       <c r="D2">
-        <v>1.047310552161974</v>
+        <v>1.040056914031694</v>
       </c>
       <c r="E2">
-        <v>1.014121338360366</v>
+        <v>0.9848171414166133</v>
       </c>
       <c r="F2">
-        <v>1.047650023309213</v>
+        <v>1.026513985532552</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03816588614912</v>
+        <v>1.05685121568481</v>
       </c>
       <c r="J2">
-        <v>1.017259174851471</v>
+        <v>0.9978017459883384</v>
       </c>
       <c r="K2">
-        <v>1.050073546448045</v>
+        <v>1.050985034915643</v>
       </c>
       <c r="L2">
-        <v>1.016980440022441</v>
+        <v>0.9964921300372624</v>
       </c>
       <c r="M2">
-        <v>1.050412068711576</v>
+        <v>1.037615894666696</v>
       </c>
       <c r="N2">
-        <v>1.009901413314541</v>
+        <v>1.00342682049168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012962844597421</v>
+        <v>0.9794682926142046</v>
       </c>
       <c r="D3">
-        <v>1.048062212629455</v>
+        <v>1.044333892813997</v>
       </c>
       <c r="E3">
-        <v>1.014924594023024</v>
+        <v>0.9884808334883839</v>
       </c>
       <c r="F3">
-        <v>1.04863699319098</v>
+        <v>1.031810790064321</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038347439040479</v>
+        <v>1.058538448330805</v>
       </c>
       <c r="J3">
-        <v>1.017841514589394</v>
+        <v>1.000534763955401</v>
       </c>
       <c r="K3">
-        <v>1.050637181457562</v>
+        <v>1.054429278169618</v>
       </c>
       <c r="L3">
-        <v>1.017588577923297</v>
+        <v>0.9992632573207971</v>
       </c>
       <c r="M3">
-        <v>1.051210471632037</v>
+        <v>1.042052203101747</v>
       </c>
       <c r="N3">
-        <v>1.010093994106258</v>
+        <v>1.004334398608925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013576493200082</v>
+        <v>0.9823927958461892</v>
       </c>
       <c r="D4">
-        <v>1.048544424930195</v>
+        <v>1.047008953084224</v>
       </c>
       <c r="E4">
-        <v>1.015444510948086</v>
+        <v>0.9908030949134232</v>
       </c>
       <c r="F4">
-        <v>1.049271216130445</v>
+        <v>1.035128831188463</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038461240550373</v>
+        <v>1.059575200229903</v>
       </c>
       <c r="J4">
-        <v>1.018217460067269</v>
+        <v>1.002257877167262</v>
       </c>
       <c r="K4">
-        <v>1.050997074577084</v>
+        <v>1.056571288817965</v>
       </c>
       <c r="L4">
-        <v>1.017981594509036</v>
+        <v>1.001013800646335</v>
       </c>
       <c r="M4">
-        <v>1.051722076158153</v>
+        <v>1.044820992070336</v>
       </c>
       <c r="N4">
-        <v>1.010218292242407</v>
+        <v>1.004906509011508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013834397612502</v>
+        <v>0.9836063171036669</v>
       </c>
       <c r="D5">
-        <v>1.048746148980426</v>
+        <v>1.04811211322313</v>
       </c>
       <c r="E5">
-        <v>1.015663120583458</v>
+        <v>0.991768220123951</v>
       </c>
       <c r="F5">
-        <v>1.049536785914536</v>
+        <v>1.036498446689266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038508201746191</v>
+        <v>1.059998209248586</v>
       </c>
       <c r="J5">
-        <v>1.018375299233632</v>
+        <v>1.002971796204988</v>
       </c>
       <c r="K5">
-        <v>1.051147218976202</v>
+        <v>1.057451645956901</v>
       </c>
       <c r="L5">
-        <v>1.018146700804539</v>
+        <v>1.001739898375915</v>
       </c>
       <c r="M5">
-        <v>1.051935952449633</v>
+        <v>1.045961382021519</v>
       </c>
       <c r="N5">
-        <v>1.010270471642466</v>
+        <v>1.005143519426515</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013877696576633</v>
+        <v>0.9838091559694252</v>
       </c>
       <c r="D6">
-        <v>1.048779960765535</v>
+        <v>1.048296100945549</v>
       </c>
       <c r="E6">
-        <v>1.015699828218004</v>
+        <v>0.9919296269250596</v>
       </c>
       <c r="F6">
-        <v>1.049581314198552</v>
+        <v>1.036726952888516</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038516035045194</v>
+        <v>1.060068490318211</v>
       </c>
       <c r="J6">
-        <v>1.018401788888003</v>
+        <v>1.00309106239605</v>
       </c>
       <c r="K6">
-        <v>1.051172361121985</v>
+        <v>1.057598297148505</v>
       </c>
       <c r="L6">
-        <v>1.018174415943626</v>
+        <v>1.001861246921046</v>
       </c>
       <c r="M6">
-        <v>1.051971792672432</v>
+        <v>1.04615149522962</v>
       </c>
       <c r="N6">
-        <v>1.010279228356609</v>
+        <v>1.00518311242694</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013579939620762</v>
+        <v>0.9824090727840968</v>
       </c>
       <c r="D7">
-        <v>1.048547124300581</v>
+        <v>1.047023776906841</v>
       </c>
       <c r="E7">
-        <v>1.015447431878382</v>
+        <v>0.9908160342361357</v>
       </c>
       <c r="F7">
-        <v>1.04927476884419</v>
+        <v>1.035147230294635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03846187151128</v>
+        <v>1.059580902540889</v>
       </c>
       <c r="J7">
-        <v>1.01821956994141</v>
+        <v>1.002267457279387</v>
       </c>
       <c r="K7">
-        <v>1.050999085353324</v>
+        <v>1.056583130583467</v>
       </c>
       <c r="L7">
-        <v>1.017983801131617</v>
+        <v>1.001023540968675</v>
       </c>
       <c r="M7">
-        <v>1.051724938709987</v>
+        <v>1.04483632181345</v>
       </c>
       <c r="N7">
-        <v>1.010218989763242</v>
+        <v>1.00490968957048</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012334741982418</v>
+        <v>0.9764199573953546</v>
       </c>
       <c r="D8">
-        <v>1.047565440275052</v>
+        <v>1.041521910299919</v>
       </c>
       <c r="E8">
-        <v>1.014392769328016</v>
+        <v>0.9860655914836981</v>
       </c>
       <c r="F8">
-        <v>1.047984487399638</v>
+        <v>1.028327261100483</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038228003180461</v>
+        <v>1.057433015924187</v>
       </c>
       <c r="J8">
-        <v>1.017456158465643</v>
+        <v>0.9987350018090442</v>
       </c>
       <c r="K8">
-        <v>1.0502650258809</v>
+        <v>1.052167347864167</v>
       </c>
       <c r="L8">
-        <v>1.017186063952677</v>
+        <v>0.9974376811016802</v>
       </c>
       <c r="M8">
-        <v>1.050682930350899</v>
+        <v>1.039136720239274</v>
       </c>
       <c r="N8">
-        <v>1.009966561875403</v>
+        <v>1.003736754867339</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010138226728848</v>
+        <v>0.9653046674236573</v>
       </c>
       <c r="D9">
-        <v>1.045803770739517</v>
+        <v>1.031085195047174</v>
       </c>
       <c r="E9">
-        <v>1.012535561363039</v>
+        <v>0.9773032752474479</v>
       </c>
       <c r="F9">
-        <v>1.04567709467411</v>
+        <v>1.015428791174058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037787792154339</v>
+        <v>1.053210960621578</v>
       </c>
       <c r="J9">
-        <v>1.016104315807701</v>
+        <v>0.992145040239333</v>
       </c>
       <c r="K9">
-        <v>1.048934695558413</v>
+        <v>1.043693294287024</v>
       </c>
       <c r="L9">
-        <v>1.015776632370311</v>
+        <v>0.9907756471803779</v>
       </c>
       <c r="M9">
-        <v>1.048808424343099</v>
+        <v>1.02827641015637</v>
       </c>
       <c r="N9">
-        <v>1.009519352860898</v>
+        <v>1.001547890870286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00867234336161</v>
+        <v>0.9574696834050095</v>
       </c>
       <c r="D10">
-        <v>1.044608003329458</v>
+        <v>1.023576933747923</v>
       </c>
       <c r="E10">
-        <v>1.011298309754793</v>
+        <v>0.9711671224586638</v>
       </c>
       <c r="F10">
-        <v>1.044116183192049</v>
+        <v>1.006171210404326</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037475474573586</v>
+        <v>1.050077763142782</v>
       </c>
       <c r="J10">
-        <v>1.015198674223371</v>
+        <v>0.9874785935318779</v>
       </c>
       <c r="K10">
-        <v>1.048023125838685</v>
+        <v>1.037533159445815</v>
       </c>
       <c r="L10">
-        <v>1.014834550077651</v>
+        <v>0.9860772366281056</v>
       </c>
       <c r="M10">
-        <v>1.04753303204222</v>
+        <v>1.020429928580898</v>
       </c>
       <c r="N10">
-        <v>1.00921961278282</v>
+        <v>0.9999975968453801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008037236735509</v>
+        <v>0.9539646052359803</v>
       </c>
       <c r="D11">
-        <v>1.044085177179233</v>
+        <v>1.020182214334098</v>
       </c>
       <c r="E11">
-        <v>1.01076278632216</v>
+        <v>0.9684324499809568</v>
       </c>
       <c r="F11">
-        <v>1.043434923770157</v>
+        <v>1.001989673925762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037335777472135</v>
+        <v>1.048639321643409</v>
       </c>
       <c r="J11">
-        <v>1.014805480542724</v>
+        <v>0.9853863463590001</v>
       </c>
       <c r="K11">
-        <v>1.047622564169062</v>
+        <v>1.034733302609794</v>
       </c>
       <c r="L11">
-        <v>1.014426041098698</v>
+        <v>0.9839752914675343</v>
       </c>
       <c r="M11">
-        <v>1.046974681905786</v>
+        <v>1.016874165203951</v>
       </c>
       <c r="N11">
-        <v>1.009089444489583</v>
+        <v>0.9993024635867628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007801274373927</v>
+        <v>0.952644666687581</v>
       </c>
       <c r="D12">
-        <v>1.0438902180045</v>
+        <v>1.018898459074377</v>
       </c>
       <c r="E12">
-        <v>1.010563902013483</v>
+        <v>0.9674042723124237</v>
       </c>
       <c r="F12">
-        <v>1.043181066195385</v>
+        <v>1.000408898823916</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037283218020801</v>
+        <v>1.048092150706807</v>
       </c>
       <c r="J12">
-        <v>1.014659274268896</v>
+        <v>0.9845977854573622</v>
       </c>
       <c r="K12">
-        <v>1.047472900127002</v>
+        <v>1.033672334996026</v>
       </c>
       <c r="L12">
-        <v>1.014274215811134</v>
+        <v>0.9831837823425693</v>
       </c>
       <c r="M12">
-        <v>1.046766370202106</v>
+        <v>1.015528269168338</v>
       </c>
       <c r="N12">
-        <v>1.009041037402754</v>
+        <v>0.9990404666581238</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007851891612148</v>
+        <v>0.9529286310503821</v>
       </c>
       <c r="D13">
-        <v>1.0439320717141</v>
+        <v>1.01917488198303</v>
       </c>
       <c r="E13">
-        <v>1.01060656187162</v>
+        <v>0.9676253933524676</v>
       </c>
       <c r="F13">
-        <v>1.043235556049759</v>
+        <v>1.000749254966353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037294522499703</v>
+        <v>1.048210113174277</v>
       </c>
       <c r="J13">
-        <v>1.014690643093692</v>
+        <v>0.9847674615995987</v>
       </c>
       <c r="K13">
-        <v>1.047505043275621</v>
+        <v>1.033900883709655</v>
       </c>
       <c r="L13">
-        <v>1.014306786774663</v>
+        <v>0.9833540607456479</v>
       </c>
       <c r="M13">
-        <v>1.046811095197928</v>
+        <v>1.015818128782088</v>
       </c>
       <c r="N13">
-        <v>1.009051423454917</v>
+        <v>0.99909684114377</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008017733144903</v>
+        <v>0.9538558725159053</v>
       </c>
       <c r="D14">
-        <v>1.044069077258422</v>
+        <v>1.020076571482542</v>
       </c>
       <c r="E14">
-        <v>1.010746345807382</v>
+        <v>0.9683477178532233</v>
       </c>
       <c r="F14">
-        <v>1.043413956297196</v>
+        <v>1.001859578599704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037331446550702</v>
+        <v>1.048594358462546</v>
       </c>
       <c r="J14">
-        <v>1.014793398279905</v>
+        <v>0.9853214002929468</v>
       </c>
       <c r="K14">
-        <v>1.047610210791949</v>
+        <v>1.034646037167995</v>
       </c>
       <c r="L14">
-        <v>1.014413492942607</v>
+        <v>0.9839100881627744</v>
       </c>
       <c r="M14">
-        <v>1.0469574814717</v>
+        <v>1.016763433939089</v>
       </c>
       <c r="N14">
-        <v>1.009085444302395</v>
+        <v>0.9992808855107587</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008119906234854</v>
+        <v>0.9544247574143911</v>
       </c>
       <c r="D15">
-        <v>1.044153390434237</v>
+        <v>1.020629071396828</v>
       </c>
       <c r="E15">
-        <v>1.01083247568826</v>
+        <v>0.9687911000512278</v>
       </c>
       <c r="F15">
-        <v>1.04352376757331</v>
+        <v>1.002539982914223</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037354107947532</v>
+        <v>1.048829380757276</v>
       </c>
       <c r="J15">
-        <v>1.014856688395843</v>
+        <v>0.9856611684423537</v>
       </c>
       <c r="K15">
-        <v>1.047674891697329</v>
+        <v>1.035102337452163</v>
       </c>
       <c r="L15">
-        <v>1.014479226636865</v>
+        <v>0.9842512309163768</v>
       </c>
       <c r="M15">
-        <v>1.04704755356908</v>
+        <v>1.017342495125067</v>
       </c>
       <c r="N15">
-        <v>1.009106398148306</v>
+        <v>0.9993937720210637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008714485515535</v>
+        <v>0.9576998425591345</v>
       </c>
       <c r="D16">
-        <v>1.044642595213887</v>
+        <v>1.023799102193847</v>
       </c>
       <c r="E16">
-        <v>1.011333855263576</v>
+        <v>0.9713469163106572</v>
       </c>
       <c r="F16">
-        <v>1.044161282902347</v>
+        <v>1.006444949719485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037484651860698</v>
+        <v>1.050171456515756</v>
       </c>
       <c r="J16">
-        <v>1.015224747208895</v>
+        <v>0.9876158859754636</v>
       </c>
       <c r="K16">
-        <v>1.048049586691059</v>
+        <v>1.037716096280969</v>
       </c>
       <c r="L16">
-        <v>1.014861649268089</v>
+        <v>0.986215262599904</v>
       </c>
       <c r="M16">
-        <v>1.047569959483895</v>
+        <v>1.020662466785051</v>
       </c>
       <c r="N16">
-        <v>1.009228243653149</v>
+        <v>1.000043210561881</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009087350504147</v>
+        <v>0.9597233576935376</v>
       </c>
       <c r="D17">
-        <v>1.044948108612615</v>
+        <v>1.025748300585328</v>
       </c>
       <c r="E17">
-        <v>1.011648415394646</v>
+        <v>0.9729288206483732</v>
       </c>
       <c r="F17">
-        <v>1.044559740548453</v>
+        <v>1.008847058747709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037565344551753</v>
+        <v>1.050991021287931</v>
       </c>
       <c r="J17">
-        <v>1.015455341288029</v>
+        <v>0.9888224105180565</v>
       </c>
       <c r="K17">
-        <v>1.048283058353627</v>
+        <v>1.039319443885386</v>
       </c>
       <c r="L17">
-        <v>1.015101377619986</v>
+        <v>0.987428760045887</v>
       </c>
       <c r="M17">
-        <v>1.047896018925785</v>
+        <v>1.022701724999047</v>
       </c>
       <c r="N17">
-        <v>1.009304572784559</v>
+        <v>1.000444058817211</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009304800696941</v>
+        <v>0.9608928663525145</v>
       </c>
       <c r="D18">
-        <v>1.045125822030959</v>
+        <v>1.026871469571673</v>
       </c>
       <c r="E18">
-        <v>1.011831913666372</v>
+        <v>0.9738440762655008</v>
       </c>
       <c r="F18">
-        <v>1.044791635606175</v>
+        <v>1.010231596487123</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037611980726121</v>
+        <v>1.051461214836519</v>
       </c>
       <c r="J18">
-        <v>1.015589742074005</v>
+        <v>0.989519289523374</v>
       </c>
       <c r="K18">
-        <v>1.048418674333875</v>
+        <v>1.040241944911921</v>
       </c>
       <c r="L18">
-        <v>1.015241151013171</v>
+        <v>0.9881301036093423</v>
       </c>
       <c r="M18">
-        <v>1.048085615605919</v>
+        <v>1.023876025844948</v>
       </c>
       <c r="N18">
-        <v>1.009349057712628</v>
+        <v>1.000675581254898</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009378939545727</v>
+        <v>0.9612898430107523</v>
       </c>
       <c r="D19">
-        <v>1.045186335026657</v>
+        <v>1.027252141869466</v>
       </c>
       <c r="E19">
-        <v>1.011894485319527</v>
+        <v>0.9741549135352006</v>
       </c>
       <c r="F19">
-        <v>1.044870617872996</v>
+        <v>1.010700922882593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037627809416729</v>
+        <v>1.051620225049452</v>
       </c>
       <c r="J19">
-        <v>1.015635552153558</v>
+        <v>0.9897557612277949</v>
       </c>
       <c r="K19">
-        <v>1.048464820176341</v>
+        <v>1.040554369965579</v>
       </c>
       <c r="L19">
-        <v>1.015288800598901</v>
+        <v>0.9883681641090251</v>
       </c>
       <c r="M19">
-        <v>1.04815016337881</v>
+        <v>1.024273899292342</v>
       </c>
       <c r="N19">
-        <v>1.009364219717598</v>
+        <v>1.000754142858164</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009047349306285</v>
+        <v>0.9595073756521204</v>
       </c>
       <c r="D20">
-        <v>1.044915380323142</v>
+        <v>1.025540602409157</v>
       </c>
       <c r="E20">
-        <v>1.011614663926481</v>
+        <v>0.9727598721554575</v>
       </c>
       <c r="F20">
-        <v>1.044517043449035</v>
+        <v>1.008591060250673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037556731514577</v>
+        <v>1.050903905234211</v>
       </c>
       <c r="J20">
-        <v>1.015430611153156</v>
+        <v>0.9886936765411826</v>
       </c>
       <c r="K20">
-        <v>1.048258067394657</v>
+        <v>1.039148741379648</v>
       </c>
       <c r="L20">
-        <v>1.015075662835726</v>
+        <v>0.9872992366214898</v>
       </c>
       <c r="M20">
-        <v>1.047861096677988</v>
+        <v>1.02248450980444</v>
       </c>
       <c r="N20">
-        <v>1.009296387171971</v>
+        <v>1.00040128946562</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007968898478562</v>
+        <v>0.9535833291064751</v>
       </c>
       <c r="D21">
-        <v>1.044028753468045</v>
+        <v>1.01981168641644</v>
       </c>
       <c r="E21">
-        <v>1.010705182007716</v>
+        <v>0.9681353597143975</v>
       </c>
       <c r="F21">
-        <v>1.043361444162602</v>
+        <v>1.001533390404788</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03732059182153</v>
+        <v>1.048481568076209</v>
       </c>
       <c r="J21">
-        <v>1.014763143759892</v>
+        <v>0.9851585994998897</v>
       </c>
       <c r="K21">
-        <v>1.047579265800814</v>
+        <v>1.034427196219006</v>
       </c>
       <c r="L21">
-        <v>1.014382073030183</v>
+        <v>0.9837466539662107</v>
       </c>
       <c r="M21">
-        <v>1.046914399635389</v>
+        <v>1.016485770352242</v>
       </c>
       <c r="N21">
-        <v>1.009075427577348</v>
+        <v>0.9992267955384471</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007290512622459</v>
+        <v>0.9497539078899039</v>
       </c>
       <c r="D22">
-        <v>1.043466909099633</v>
+        <v>1.016077047474894</v>
       </c>
       <c r="E22">
-        <v>1.010133545515785</v>
+        <v>0.9651556035254065</v>
       </c>
       <c r="F22">
-        <v>1.042630201001971</v>
+        <v>0.9969355653465751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037168246818763</v>
+        <v>1.046883754792487</v>
       </c>
       <c r="J22">
-        <v>1.014342574431033</v>
+        <v>0.9828695966771879</v>
       </c>
       <c r="K22">
-        <v>1.047147399013056</v>
+        <v>1.031336604050357</v>
       </c>
       <c r="L22">
-        <v>1.013945483220793</v>
+        <v>0.9814504470362051</v>
       </c>
       <c r="M22">
-        <v>1.046313876325283</v>
+        <v>1.012567974706589</v>
       </c>
       <c r="N22">
-        <v>1.00893617301605</v>
+        <v>0.9984662781746335</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007650168229927</v>
+        <v>0.9517942768814642</v>
       </c>
       <c r="D23">
-        <v>1.043765169090006</v>
+        <v>1.018069865731104</v>
       </c>
       <c r="E23">
-        <v>1.01043656252152</v>
+        <v>0.9667423267397387</v>
       </c>
       <c r="F23">
-        <v>1.043018289742023</v>
+        <v>0.9993887316216086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037249374883186</v>
+        <v>1.047738086914652</v>
       </c>
       <c r="J23">
-        <v>1.014565611968525</v>
+        <v>0.9840895605596135</v>
       </c>
       <c r="K23">
-        <v>1.047376820837833</v>
+        <v>1.032986932275917</v>
       </c>
       <c r="L23">
-        <v>1.014176975218021</v>
+        <v>0.9826738580298634</v>
       </c>
       <c r="M23">
-        <v>1.046632727127242</v>
+        <v>1.014659215074867</v>
       </c>
       <c r="N23">
-        <v>1.009010025589895</v>
+        <v>0.998871609890693</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009065424235686</v>
+        <v>0.9596050018522826</v>
       </c>
       <c r="D24">
-        <v>1.044930170333811</v>
+        <v>1.025634494723018</v>
       </c>
       <c r="E24">
-        <v>1.011629914698195</v>
+        <v>0.9728362356531169</v>
       </c>
       <c r="F24">
-        <v>1.044536338031884</v>
+        <v>1.008706786046892</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037560624705306</v>
+        <v>1.050943293427883</v>
       </c>
       <c r="J24">
-        <v>1.015441785948053</v>
+        <v>0.9887518670557881</v>
       </c>
       <c r="K24">
-        <v>1.048269361475779</v>
+        <v>1.039225913675471</v>
       </c>
       <c r="L24">
-        <v>1.015087282413089</v>
+        <v>0.9873577826278395</v>
       </c>
       <c r="M24">
-        <v>1.047876878355596</v>
+        <v>1.022582706761374</v>
       </c>
       <c r="N24">
-        <v>1.009300086010887</v>
+        <v>1.000420622142197</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010706351208077</v>
+        <v>0.9682494236076752</v>
       </c>
       <c r="D25">
-        <v>1.046262967234636</v>
+        <v>1.033876283315684</v>
       </c>
       <c r="E25">
-        <v>1.013015541463022</v>
+        <v>0.9796180167113795</v>
       </c>
       <c r="F25">
-        <v>1.046277605769122</v>
+        <v>1.018874210432532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037904922164714</v>
+        <v>1.054356663884934</v>
       </c>
       <c r="J25">
-        <v>1.016454579721014</v>
+        <v>0.9938946919895871</v>
       </c>
       <c r="K25">
-        <v>1.049282973404613</v>
+        <v>1.045970527492716</v>
       </c>
       <c r="L25">
-        <v>1.016141440665199</v>
+        <v>0.9925411977744695</v>
       </c>
       <c r="M25">
-        <v>1.049297566934042</v>
+        <v>1.031186427350052</v>
       </c>
       <c r="N25">
-        <v>1.009635250092434</v>
+        <v>1.002129106811448</v>
       </c>
     </row>
   </sheetData>
